--- a/biology/Médecine/État_précancéreux/État_précancéreux.xlsx
+++ b/biology/Médecine/État_précancéreux/État_précancéreux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tat_pr%C3%A9canc%C3%A9reux</t>
+          <t>État_précancéreux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un état pré-cancéreux est la forme que prend un tissu, organe ou partie d'organe, où est susceptible de se développer un cancer propre à ce tissu ou cet organe. Il peut se reconnaître par une lésion, dite précancéreuse. Au niveau d'un épithélium, il peut s'agir d'une dysplasie, qui est une altération du métabolisme cellulaire.
-Comme exemples d'affections précancéreuses, on peut citer les dysplasies pouvant survenir au cours de la gastrite chronique à Helicobacter pylori, l'endobrachyœsophage par reflux gastro-œsophagien, le condylome à papillomavirus du col utérin, un adénome du côlon[1].
+Comme exemples d'affections précancéreuses, on peut citer les dysplasies pouvant survenir au cours de la gastrite chronique à Helicobacter pylori, l'endobrachyœsophage par reflux gastro-œsophagien, le condylome à papillomavirus du col utérin, un adénome du côlon.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tat_pr%C3%A9canc%C3%A9reux</t>
+          <t>État_précancéreux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Collège Français des pathologistes, Histoire naturelle du cancer, 2011
